--- a/public/files/d2014.xlsx
+++ b/public/files/d2014.xlsx
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -76,37 +76,19 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -142,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -170,40 +152,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,7 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -559,7 +519,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -574,7 +534,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="15">
+      <c r="A2" s="10">
         <v>2014</v>
       </c>
       <c r="B2" s="4">
@@ -588,7 +548,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="15">
+      <c r="A3" s="10">
         <v>2014</v>
       </c>
       <c r="B3" s="4">
@@ -602,7 +562,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="15">
+      <c r="A4" s="10">
         <v>2014</v>
       </c>
       <c r="B4" s="4">
@@ -616,7 +576,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="15">
+      <c r="A5" s="10">
         <v>2014</v>
       </c>
       <c r="B5" s="4">
@@ -630,7 +590,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="15">
+      <c r="A6" s="10">
         <v>2014</v>
       </c>
       <c r="B6" s="4">
@@ -644,7 +604,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15">
+      <c r="A7" s="10">
         <v>2014</v>
       </c>
       <c r="B7" s="4">
@@ -658,7 +618,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="15">
+      <c r="A8" s="10">
         <v>2014</v>
       </c>
       <c r="B8" s="4">
@@ -672,7 +632,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="15">
+      <c r="A9" s="10">
         <v>2014</v>
       </c>
       <c r="B9" s="4">
@@ -686,7 +646,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="15">
+      <c r="A10" s="10">
         <v>2014</v>
       </c>
       <c r="B10" s="4">
@@ -700,7 +660,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="15">
+      <c r="A11" s="10">
         <v>2014</v>
       </c>
       <c r="B11" s="4">
@@ -714,7 +674,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="15">
+      <c r="A12" s="10">
         <v>2014</v>
       </c>
       <c r="B12" s="4">
@@ -728,7 +688,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="15">
+      <c r="A13" s="10">
         <v>2014</v>
       </c>
       <c r="B13" s="4">
@@ -742,7 +702,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="15">
+      <c r="A14" s="10">
         <v>2014</v>
       </c>
       <c r="B14" s="4">
@@ -756,7 +716,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="15">
+      <c r="A15" s="10">
         <v>2014</v>
       </c>
       <c r="B15" s="4">
@@ -770,7 +730,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="15">
+      <c r="A16" s="10">
         <v>2014</v>
       </c>
       <c r="B16" s="4">
@@ -784,7 +744,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="15">
+      <c r="A17" s="10">
         <v>2014</v>
       </c>
       <c r="B17" s="4">
@@ -798,7 +758,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="15">
+      <c r="A18" s="10">
         <v>2014</v>
       </c>
       <c r="B18" s="4">
@@ -812,7 +772,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="15">
+      <c r="A19" s="10">
         <v>2014</v>
       </c>
       <c r="B19" s="4">
@@ -826,7 +786,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="15">
+      <c r="A20" s="10">
         <v>2014</v>
       </c>
       <c r="B20" s="4">
@@ -840,7 +800,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="15">
+      <c r="A21" s="10">
         <v>2014</v>
       </c>
       <c r="B21" s="4">
@@ -854,7 +814,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="15">
+      <c r="A22" s="10">
         <v>2014</v>
       </c>
       <c r="B22" s="4">
@@ -868,7 +828,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="15">
+      <c r="A23" s="10">
         <v>2014</v>
       </c>
       <c r="B23" s="4">
@@ -882,7 +842,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="15">
+      <c r="A24" s="10">
         <v>2014</v>
       </c>
       <c r="B24" s="4">
@@ -896,7 +856,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="15">
+      <c r="A25" s="10">
         <v>2014</v>
       </c>
       <c r="B25" s="4">
@@ -910,7 +870,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="15">
+      <c r="A26" s="10">
         <v>2014</v>
       </c>
       <c r="B26" s="4">
@@ -924,7 +884,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="15">
+      <c r="A27" s="10">
         <v>2014</v>
       </c>
       <c r="B27" s="4">
@@ -938,7 +898,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="15">
+      <c r="A28" s="10">
         <v>2014</v>
       </c>
       <c r="B28" s="4">
@@ -952,7 +912,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="15">
+      <c r="A29" s="10">
         <v>2014</v>
       </c>
       <c r="B29" s="4">
@@ -966,7 +926,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="15">
+      <c r="A30" s="10">
         <v>2014</v>
       </c>
       <c r="B30" s="4">
@@ -980,7 +940,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="15">
+      <c r="A31" s="10">
         <v>2014</v>
       </c>
       <c r="B31" s="4">
@@ -994,7 +954,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="15">
+      <c r="A32" s="10">
         <v>2014</v>
       </c>
       <c r="B32" s="4">
@@ -1008,7 +968,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="15">
+      <c r="A33" s="10">
         <v>2014</v>
       </c>
       <c r="B33" s="4">
@@ -1022,7 +982,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="15">
+      <c r="A34" s="10">
         <v>2014</v>
       </c>
       <c r="B34" s="4">
@@ -1036,7 +996,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="15">
+      <c r="A35" s="10">
         <v>2014</v>
       </c>
       <c r="B35" s="4">
@@ -1050,7 +1010,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="15">
+      <c r="A36" s="10">
         <v>2014</v>
       </c>
       <c r="B36" s="4">
@@ -1064,7 +1024,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="15">
+      <c r="A37" s="10">
         <v>2014</v>
       </c>
       <c r="B37" s="4">
@@ -1078,7 +1038,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="15">
+      <c r="A38" s="10">
         <v>2014</v>
       </c>
       <c r="B38" s="4">
@@ -1092,7 +1052,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="15">
+      <c r="A39" s="10">
         <v>2014</v>
       </c>
       <c r="B39" s="4">
@@ -1106,7 +1066,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="15">
+      <c r="A40" s="10">
         <v>2014</v>
       </c>
       <c r="B40" s="4">
@@ -1120,7 +1080,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="15">
+      <c r="A41" s="10">
         <v>2014</v>
       </c>
       <c r="B41" s="4">
@@ -1134,7 +1094,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="15">
+      <c r="A42" s="10">
         <v>2014</v>
       </c>
       <c r="B42" s="4">
@@ -1148,7 +1108,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="15">
+      <c r="A43" s="10">
         <v>2014</v>
       </c>
       <c r="B43" s="4">
@@ -1162,7 +1122,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="15">
+      <c r="A44" s="10">
         <v>2014</v>
       </c>
       <c r="B44" s="4">
@@ -1176,7 +1136,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="15">
+      <c r="A45" s="10">
         <v>2014</v>
       </c>
       <c r="B45" s="4">
@@ -1190,7 +1150,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="15">
+      <c r="A46" s="10">
         <v>2014</v>
       </c>
       <c r="B46" s="4">
@@ -1204,7 +1164,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="15">
+      <c r="A47" s="10">
         <v>2014</v>
       </c>
       <c r="B47" s="4">
@@ -1218,7 +1178,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="15">
+      <c r="A48" s="10">
         <v>2014</v>
       </c>
       <c r="B48" s="4">
@@ -1232,7 +1192,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="15">
+      <c r="A49" s="10">
         <v>2014</v>
       </c>
       <c r="B49" s="4">
@@ -1246,7 +1206,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="15">
+      <c r="A50" s="10">
         <v>2014</v>
       </c>
       <c r="B50" s="4">
@@ -1260,7 +1220,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="15">
+      <c r="A51" s="10">
         <v>2014</v>
       </c>
       <c r="B51" s="4">
@@ -1274,7 +1234,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="15">
+      <c r="A52" s="10">
         <v>2014</v>
       </c>
       <c r="B52" s="4">
@@ -1288,7 +1248,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="15">
+      <c r="A53" s="10">
         <v>2014</v>
       </c>
       <c r="B53" s="4">
@@ -1302,7 +1262,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="15">
+      <c r="A54" s="10">
         <v>2014</v>
       </c>
       <c r="B54" s="4">
@@ -1316,7 +1276,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="15">
+      <c r="A55" s="10">
         <v>2014</v>
       </c>
       <c r="B55" s="4">
@@ -1330,7 +1290,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="15">
+      <c r="A56" s="10">
         <v>2014</v>
       </c>
       <c r="B56" s="4">
@@ -1344,315 +1304,315 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B57" s="19">
+      <c r="A57" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B57" s="12">
         <v>21010300</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="13">
         <v>2100000</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D57" s="13">
         <v>1842939.84</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B58" s="19">
+      <c r="A58" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B58" s="12">
         <v>21050000</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="13">
         <v>100000</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B59" s="19">
+      <c r="A59" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B59" s="12">
         <v>21080500</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="13">
         <v>650000</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="13">
         <v>653266.1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B60" s="19">
+      <c r="A60" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B60" s="12">
         <v>21080900</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="13">
         <v>15000</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="13">
         <v>39189.599999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B61" s="19">
+      <c r="A61" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B61" s="12">
         <v>21081100</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="13">
         <v>930000</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="13">
         <v>717971.86</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B62" s="19">
+      <c r="A62" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B62" s="12">
         <v>21110000</v>
       </c>
-      <c r="C62" s="20">
-        <v>0</v>
-      </c>
-      <c r="D62" s="20">
+      <c r="C62" s="13">
+        <v>0</v>
+      </c>
+      <c r="D62" s="13">
         <v>27366.560000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B63" s="19">
+      <c r="A63" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B63" s="12">
         <v>22080400</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="13">
         <v>22600000</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="13">
         <v>23403760.879999999</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B64" s="19">
+      <c r="A64" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B64" s="12">
         <v>22090100</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="13">
         <v>1483400</v>
       </c>
-      <c r="D64" s="20">
+      <c r="D64" s="13">
         <v>1814865.63</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B65" s="19">
+      <c r="A65" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B65" s="12">
         <v>22090400</v>
       </c>
-      <c r="C65" s="20">
+      <c r="C65" s="13">
         <v>166600</v>
       </c>
-      <c r="D65" s="20">
+      <c r="D65" s="13">
         <v>221264.7</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B66" s="19">
+      <c r="A66" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B66" s="12">
         <v>24030000</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="13">
         <v>170000</v>
       </c>
-      <c r="D66" s="20">
+      <c r="D66" s="13">
         <v>159601.82</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B67" s="19">
+      <c r="A67" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B67" s="12">
         <v>24060300</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67" s="13">
         <v>18439000</v>
       </c>
-      <c r="D67" s="20">
+      <c r="D67" s="13">
         <v>14997259.199999999</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B68" s="19">
+      <c r="A68" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B68" s="12">
         <v>24062100</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68" s="13">
         <v>220000</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="13">
         <v>191314.15</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B69" s="19">
+      <c r="A69" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B69" s="12">
         <v>24110700</v>
       </c>
-      <c r="C69" s="20">
-        <v>0</v>
-      </c>
-      <c r="D69" s="20">
+      <c r="C69" s="13">
+        <v>0</v>
+      </c>
+      <c r="D69" s="13">
         <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B70" s="19">
+      <c r="A70" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B70" s="12">
         <v>24110900</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70" s="13">
         <v>10000</v>
       </c>
-      <c r="D70" s="20">
+      <c r="D70" s="13">
         <v>8617.0300000000007</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B71" s="19">
+      <c r="A71" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B71" s="12">
         <v>24170000</v>
       </c>
-      <c r="C71" s="20">
+      <c r="C71" s="13">
         <v>10600000</v>
       </c>
-      <c r="D71" s="20">
+      <c r="D71" s="13">
         <v>23719311.940000001</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B72" s="19">
+      <c r="A72" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B72" s="12">
         <v>25010000</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="13">
         <v>56439354</v>
       </c>
-      <c r="D72" s="20">
+      <c r="D72" s="13">
         <v>44334980.060000002</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="18">
-        <v>2014</v>
-      </c>
-      <c r="B73" s="19">
+      <c r="A73" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B73" s="12">
         <v>25020000</v>
       </c>
-      <c r="C73" s="20">
-        <v>0</v>
-      </c>
-      <c r="D73" s="20">
+      <c r="C73" s="13">
+        <v>0</v>
+      </c>
+      <c r="D73" s="13">
         <v>24031636.190000001</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="21">
-        <v>2014</v>
-      </c>
-      <c r="B74" s="22">
+      <c r="A74" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B74" s="12">
         <v>31010200</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="13">
         <v>65000</v>
       </c>
-      <c r="D74" s="23">
+      <c r="D74" s="13">
         <v>283046.93</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="21">
-        <v>2014</v>
-      </c>
-      <c r="B75" s="22">
+      <c r="A75" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B75" s="12">
         <v>31020000</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="13">
         <v>5000</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="13">
         <v>3407.74</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="21">
-        <v>2014</v>
-      </c>
-      <c r="B76" s="22">
+      <c r="A76" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B76" s="12">
         <v>31030000</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="13">
         <v>41000000</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D76" s="13">
         <v>49273793.450000003</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="21">
-        <v>2014</v>
-      </c>
-      <c r="B77" s="22">
+      <c r="A77" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B77" s="12">
         <v>33010100</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="13">
         <v>32000000</v>
       </c>
-      <c r="D77" s="23">
+      <c r="D77" s="13">
         <v>15061427.779999999</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="21">
-        <v>2014</v>
-      </c>
-      <c r="B78" s="22">
+      <c r="A78" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B78" s="12">
         <v>33010400</v>
       </c>
-      <c r="C78" s="23">
-        <v>0</v>
-      </c>
-      <c r="D78" s="23">
+      <c r="C78" s="13">
+        <v>0</v>
+      </c>
+      <c r="D78" s="13">
         <v>772542</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="16">
+      <c r="A79" s="11">
         <v>2014</v>
       </c>
       <c r="B79" s="12">
@@ -1666,170 +1626,170 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B80" s="10">
+      <c r="A80" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B80" s="12">
         <v>41020100</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="13">
         <v>11426100</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="13">
         <v>11426100</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B81" s="10">
+      <c r="A81" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B81" s="12">
         <v>41021000</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="13">
         <v>531500</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="13">
         <v>531500</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B82" s="24">
-        <v>41018200</v>
-      </c>
-      <c r="C82" s="11">
+      <c r="A82" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B82" s="12">
+        <v>41030600</v>
+      </c>
+      <c r="C82" s="13">
         <v>582535380</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="13">
         <v>579308236.59000003</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B83" s="24">
-        <v>41028300</v>
-      </c>
-      <c r="C83" s="11">
+      <c r="A83" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B83" s="12">
+        <v>41030800</v>
+      </c>
+      <c r="C83" s="13">
         <v>160377400</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="13">
         <v>117743430.64</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B84" s="24">
-        <v>41038400</v>
-      </c>
-      <c r="C84" s="11">
+      <c r="A84" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B84" s="12">
+        <v>41030900</v>
+      </c>
+      <c r="C84" s="13">
         <v>48463400</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="13">
         <v>47441988.630000003</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B85" s="24">
-        <v>41048500</v>
-      </c>
-      <c r="C85" s="11">
+      <c r="A85" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B85" s="12">
+        <v>41031000</v>
+      </c>
+      <c r="C85" s="13">
         <v>23500</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="13">
         <v>22098.45</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B86" s="10">
+      <c r="A86" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B86" s="12">
         <v>41032100</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="13">
         <v>600000</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="13">
         <v>515891.3</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B87" s="10">
+      <c r="A87" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B87" s="12">
         <v>41034400</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="13">
         <v>46217000</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="13">
         <v>14050831.439999999</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B88" s="24">
-        <v>41078600</v>
-      </c>
-      <c r="C88" s="11">
+      <c r="A88" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B88" s="12">
+        <v>41035800</v>
+      </c>
+      <c r="C88" s="13">
         <v>1322000</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="13">
         <v>1215888.42</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B89" s="10">
+      <c r="A89" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B89" s="12">
         <v>41036600</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="13">
         <v>329896313.17000002</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="13">
         <v>328396313.17000002</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B90" s="24">
-        <v>41088700</v>
-      </c>
-      <c r="C90" s="11">
+      <c r="A90" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B90" s="12">
+        <v>41030400</v>
+      </c>
+      <c r="C90" s="13">
         <v>450000</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="13">
         <v>48747.93</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="17">
-        <v>2014</v>
-      </c>
-      <c r="B91" s="24">
-        <v>41098800</v>
-      </c>
-      <c r="C91" s="11">
+      <c r="A91" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B91" s="12">
+        <v>41035000</v>
+      </c>
+      <c r="C91" s="13">
         <v>17498441</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D91" s="13">
         <v>17051568.52</v>
       </c>
     </row>
